--- a/Parent_Turtle_ver.servo_main_ver.2/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.2/Parent_Turtle_no1_video.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.servo_main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.servo_main_ver.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="253">
   <si>
     <t>VSS_A</t>
     <phoneticPr fontId="1"/>
@@ -991,6 +991,65 @@
   </si>
   <si>
     <t>PC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2606,16 +2665,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2643,66 +2762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3534,10 +3593,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3562,18 +3621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3586,11 +3645,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="136" t="s">
+      <c r="K1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="137"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="116"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3604,10 +3663,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="133" t="s">
+      <c r="S1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="133"/>
+      <c r="T1" s="105"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3616,10 +3675,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="125">
+      <c r="B2" s="109">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3631,7 +3690,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="111" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3688,8 +3747,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="119"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3700,7 +3759,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="132"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3755,8 +3814,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="125">
+      <c r="A4" s="107"/>
+      <c r="B4" s="109">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3768,7 +3827,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="112" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3825,8 +3884,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3836,7 +3895,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3891,8 +3950,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="119"/>
-      <c r="B6" s="122">
+      <c r="A6" s="107"/>
+      <c r="B6" s="110">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3907,7 +3966,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="132"/>
+      <c r="G6" s="111"/>
       <c r="I6" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3959,8 +4018,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="119"/>
-      <c r="B7" s="122"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3973,7 +4032,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="111"/>
       <c r="I7" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4025,8 +4084,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="125">
+      <c r="A8" s="107"/>
+      <c r="B8" s="109">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4038,7 +4097,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="123"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4091,8 +4150,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="119"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4102,7 +4161,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4155,8 +4214,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="119"/>
-      <c r="B10" s="122">
+      <c r="A10" s="107"/>
+      <c r="B10" s="110">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4167,7 +4226,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="132"/>
+      <c r="G10" s="111"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4219,8 +4278,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4229,7 +4288,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="132"/>
+      <c r="G11" s="111"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4281,8 +4340,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="125">
+      <c r="A12" s="107"/>
+      <c r="B12" s="109">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4291,7 +4350,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="123"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4300,7 +4359,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L12" s="24" t="str">
         <f t="shared" si="8"/>
@@ -4344,15 +4403,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="123"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4361,7 +4420,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L13" s="24" t="str">
         <f t="shared" si="8"/>
@@ -4405,8 +4464,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="122">
+      <c r="A14" s="107"/>
+      <c r="B14" s="110">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4415,7 +4474,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="132"/>
+      <c r="G14" s="111"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4467,15 +4526,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="122"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="132"/>
+      <c r="G15" s="111"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4527,14 +4586,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
-      <c r="B16" s="125">
+      <c r="A16" s="107"/>
+      <c r="B16" s="109">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="123"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4587,15 +4646,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="131"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4648,10 +4707,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="109">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4663,7 +4722,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="108"/>
+      <c r="G18" s="120"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4715,8 +4774,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="119"/>
-      <c r="B19" s="123"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4726,7 +4785,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19" s="121"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4778,8 +4837,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="119"/>
-      <c r="B20" s="122">
+      <c r="A20" s="107"/>
+      <c r="B20" s="110">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4792,7 +4851,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="112" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4849,8 +4908,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4861,7 +4920,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="131"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4916,10 +4975,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="123">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4932,7 +4991,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="108"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="86" t="s">
         <v>233</v>
       </c>
@@ -4987,8 +5046,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="119"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -4998,7 +5057,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="106"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="86" t="s">
         <v>234</v>
       </c>
@@ -5053,8 +5112,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="122">
+      <c r="A24" s="107"/>
+      <c r="B24" s="110">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5065,7 +5124,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="123"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5118,8 +5177,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="119"/>
-      <c r="B25" s="122"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5128,7 +5187,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="125"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5181,8 +5240,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="119"/>
-      <c r="B26" s="125">
+      <c r="A26" s="107"/>
+      <c r="B26" s="109">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5193,7 +5252,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="105"/>
+      <c r="G26" s="124"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5245,8 +5304,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="119"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5257,7 +5316,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="106"/>
+      <c r="G27" s="121"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5265,11 +5324,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L27" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="M27" s="28" t="str">
         <f t="shared" si="9"/>
@@ -5309,14 +5368,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="122">
+      <c r="A28" s="107"/>
+      <c r="B28" s="110">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="123"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5369,15 +5428,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="131"/>
+      <c r="G29" s="118"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5430,7 +5489,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="106" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5492,8 +5551,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="119"/>
-      <c r="B31" s="122" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="110" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5502,7 +5561,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="105"/>
+      <c r="G31" s="124"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5555,14 +5614,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="119"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="107"/>
+      <c r="G32" s="125"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5614,14 +5673,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="119"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="107"/>
+      <c r="G33" s="125"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5673,14 +5732,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="119"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="107"/>
+      <c r="G34" s="125"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5732,15 +5791,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="119"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="106"/>
+      <c r="G35" s="121"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5793,15 +5852,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="119"/>
-      <c r="B36" s="125" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="109" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="105"/>
+      <c r="G36" s="124"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5853,14 +5912,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="119"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="107"/>
+      <c r="G37" s="125"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5912,14 +5971,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="119"/>
-      <c r="B38" s="122"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="107"/>
+      <c r="G38" s="125"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5971,14 +6030,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="119"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="107"/>
+      <c r="G39" s="125"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6030,12 +6089,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="120"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="124"/>
+      <c r="G40" s="126"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6087,10 +6146,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="121">
+      <c r="B41" s="123">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6103,7 +6162,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="108" t="s">
+      <c r="G41" s="120" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6160,8 +6219,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="127"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6174,7 +6233,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="125"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6226,8 +6285,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="127"/>
-      <c r="B43" s="122"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6238,7 +6297,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="107"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="86" t="s">
         <v>219</v>
       </c>
@@ -6293,8 +6352,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="127"/>
-      <c r="B44" s="122"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6307,7 +6366,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="107"/>
+      <c r="G44" s="125"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6359,8 +6418,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="127"/>
-      <c r="B45" s="122"/>
+      <c r="A45" s="128"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6371,7 +6430,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="107"/>
+      <c r="G45" s="125"/>
       <c r="H45" s="86" t="s">
         <v>220</v>
       </c>
@@ -6426,8 +6485,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="127"/>
-      <c r="B46" s="122"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6440,7 +6499,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="125"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6452,7 +6511,7 @@
       </c>
       <c r="L46" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PB15</v>
+        <v/>
       </c>
       <c r="M46" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6492,8 +6551,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="127"/>
-      <c r="B47" s="122"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6504,7 +6563,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="106"/>
+      <c r="G47" s="121"/>
       <c r="H47" s="89" t="s">
         <v>221</v>
       </c>
@@ -6559,8 +6618,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="127"/>
-      <c r="B48" s="125">
+      <c r="A48" s="128"/>
+      <c r="B48" s="109">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6575,7 +6634,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="105" t="s">
+      <c r="G48" s="124" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6632,8 +6691,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="127"/>
-      <c r="B49" s="122"/>
+      <c r="A49" s="128"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6643,7 +6702,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="107"/>
+      <c r="G49" s="125"/>
       <c r="H49" s="86" t="s">
         <v>223</v>
       </c>
@@ -6698,8 +6757,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="127"/>
-      <c r="B50" s="122"/>
+      <c r="A50" s="128"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6709,7 +6768,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="107"/>
+      <c r="G50" s="125"/>
       <c r="H50" s="86" t="s">
         <v>224</v>
       </c>
@@ -6764,8 +6823,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="127"/>
-      <c r="B51" s="123"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6775,7 +6834,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="106"/>
+      <c r="G51" s="121"/>
       <c r="H51" s="89" t="s">
         <v>225</v>
       </c>
@@ -6830,8 +6889,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="127"/>
-      <c r="B52" s="122">
+      <c r="A52" s="128"/>
+      <c r="B52" s="110">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6846,7 +6905,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="105" t="s">
+      <c r="G52" s="124" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6867,7 +6926,7 @@
       </c>
       <c r="M52" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="O52" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6903,8 +6962,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="127"/>
-      <c r="B53" s="122"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="110"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6917,7 +6976,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="107"/>
+      <c r="G53" s="125"/>
       <c r="H53" s="86" t="s">
         <v>227</v>
       </c>
@@ -6936,7 +6995,7 @@
       </c>
       <c r="M53" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="O53" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6972,8 +7031,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="127"/>
-      <c r="B54" s="122"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -6984,7 +7043,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="107"/>
+      <c r="G54" s="125"/>
       <c r="H54" s="86" t="s">
         <v>228</v>
       </c>
@@ -7003,7 +7062,7 @@
       </c>
       <c r="M54" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC8</v>
+        <v/>
       </c>
       <c r="O54" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7039,8 +7098,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="127"/>
-      <c r="B55" s="122"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7051,7 +7110,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="106"/>
+      <c r="G55" s="121"/>
       <c r="H55" s="89" t="s">
         <v>229</v>
       </c>
@@ -7070,7 +7129,7 @@
       </c>
       <c r="M55" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="O55" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7106,8 +7165,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="127"/>
-      <c r="B56" s="125">
+      <c r="A56" s="128"/>
+      <c r="B56" s="109">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7119,10 +7178,15 @@
       <c r="E56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="91"/>
-      <c r="I56" s="86" t="str">
+      <c r="G56" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>59</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="33" t="str">
@@ -7131,7 +7195,7 @@
       </c>
       <c r="L56" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PD12</v>
+        <v/>
       </c>
       <c r="M56" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7141,9 +7205,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P56" s="1" t="str">
+      <c r="P56" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H56,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H56,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="11"/>
@@ -7163,7 +7227,7 @@
       </c>
       <c r="U56" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V56" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7171,8 +7235,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="127"/>
-      <c r="B57" s="122"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7226,7 +7290,7 @@
       </c>
       <c r="U57" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V57" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7234,8 +7298,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="127"/>
-      <c r="B58" s="122"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7245,10 +7309,15 @@
       <c r="E58" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="I58" s="86" t="str">
+      <c r="G58" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>61</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="33" t="str">
@@ -7257,7 +7326,7 @@
       </c>
       <c r="L58" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PD14</v>
+        <v/>
       </c>
       <c r="M58" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7267,9 +7336,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P58" s="1" t="str">
+      <c r="P58" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H58,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H58,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>61</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="11"/>
@@ -7289,7 +7358,7 @@
       </c>
       <c r="U58" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V58" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7297,8 +7366,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="127"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7357,7 +7426,7 @@
       </c>
       <c r="U59" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V59" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7365,8 +7434,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="127"/>
-      <c r="B60" s="122">
+      <c r="A60" s="128"/>
+      <c r="B60" s="110">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7377,7 +7446,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="105"/>
+      <c r="G60" s="124"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7429,15 +7498,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="127"/>
-      <c r="B61" s="122"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="107"/>
+      <c r="G61" s="125"/>
       <c r="I61" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7489,15 +7558,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="127"/>
-      <c r="B62" s="122"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="107"/>
+      <c r="G62" s="125"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7549,8 +7618,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="127"/>
-      <c r="B63" s="122"/>
+      <c r="A63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7559,7 +7628,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="106"/>
+      <c r="G63" s="121"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7612,8 +7681,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="127"/>
-      <c r="B64" s="125">
+      <c r="A64" s="128"/>
+      <c r="B64" s="109">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7671,8 +7740,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="127"/>
-      <c r="B65" s="122"/>
+      <c r="A65" s="128"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7728,8 +7797,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="127"/>
-      <c r="B66" s="122"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7785,8 +7854,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="127"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="128"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7843,8 +7912,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="127"/>
-      <c r="B68" s="122">
+      <c r="A68" s="128"/>
+      <c r="B68" s="110">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7855,15 +7924,20 @@
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="93"/>
-      <c r="I68" s="86" t="str">
+      <c r="G68" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="86">
         <f t="shared" ref="I68:I131" si="17">IF(O68="",P68,O68)</f>
-        <v/>
+        <v>63</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="33" t="str">
         <f t="shared" ref="K68:K131" si="18">IF(D68="","",IF(COUNTIF($H:$H,D68)=0,D68,""))</f>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L68" s="24" t="str">
         <f t="shared" ref="L68:L131" si="19">IF(E68="","",IF(COUNTIF($H:$H,E68)=0,E68,""))</f>
@@ -7877,9 +7951,9 @@
         <f t="shared" ref="O68:O131" si="21">IF(Q68,$Q$1,"")&amp;IF(R68=1,$R$1,"")</f>
         <v/>
       </c>
-      <c r="P68" s="1" t="str">
+      <c r="P68" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H68,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H68,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>63</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" ref="Q68:Q131" si="22">IF(COUNTIF(H:H,H68)&gt;1,1,0)</f>
@@ -7899,7 +7973,7 @@
       </c>
       <c r="U68" s="1" t="str">
         <f t="shared" ref="U68:U131" si="26">IF(B68=0,U67,IF(G68="","",G68))</f>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V68" s="1" t="str">
         <f t="shared" ref="V68:V131" si="27">S68&amp;T68&amp;"_"&amp;C68</f>
@@ -7907,8 +7981,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="127"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="109"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7962,7 +8036,7 @@
       </c>
       <c r="U69" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V69" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7970,23 +8044,30 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="127"/>
-      <c r="B70" s="122"/>
+      <c r="A70" s="128"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="94"/>
-      <c r="I70" s="86" t="str">
+      <c r="G70" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="H70" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="I70" s="86">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J70" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="K70" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L70" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8000,9 +8081,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P70" s="1" t="str">
+      <c r="P70" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H70,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H70,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>64</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="22"/>
@@ -8022,7 +8103,7 @@
       </c>
       <c r="U70" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V70" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8030,8 +8111,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="127"/>
-      <c r="B71" s="122"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="110"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8085,7 +8166,7 @@
       </c>
       <c r="U71" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V71" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8093,23 +8174,28 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="127"/>
-      <c r="B72" s="122"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="94"/>
-      <c r="I72" s="86" t="str">
+      <c r="G72" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="H72" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="I72" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC8</v>
+        <v/>
       </c>
       <c r="L72" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8123,9 +8209,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P72" s="1" t="str">
+      <c r="P72" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H72,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H72,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>65</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="22"/>
@@ -8145,7 +8231,7 @@
       </c>
       <c r="U72" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V72" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8153,8 +8239,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="127"/>
-      <c r="B73" s="122"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="110"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8164,10 +8250,15 @@
       <c r="E73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="94"/>
-      <c r="I73" s="86" t="str">
+      <c r="G73" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="I73" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>54</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="33" t="str">
@@ -8176,7 +8267,7 @@
       </c>
       <c r="L73" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PB15</v>
+        <v/>
       </c>
       <c r="M73" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8186,9 +8277,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P73" s="1" t="str">
+      <c r="P73" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H73,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H73,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>54</v>
       </c>
       <c r="Q73" s="1">
         <f t="shared" si="22"/>
@@ -8208,7 +8299,7 @@
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V73" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8216,8 +8307,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="127"/>
-      <c r="B74" s="122"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8226,16 +8317,22 @@
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89" t="str">
+      <c r="G74" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="H74" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="I74" s="89">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J74" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="J74" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="K74" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L74" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8249,9 +8346,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P74" s="1" t="str">
+      <c r="P74" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H74,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H74,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>66</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="22"/>
@@ -8271,7 +8368,7 @@
       </c>
       <c r="U74" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>LED</v>
       </c>
       <c r="V74" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8279,8 +8376,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="127"/>
-      <c r="B75" s="123">
+      <c r="A75" s="128"/>
+      <c r="B75" s="112">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8293,19 +8390,26 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="105"/>
-      <c r="I75" s="86" t="str">
+      <c r="G75" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="I75" s="86">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J75" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="K75" s="33" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L75" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PE5</v>
+        <v/>
       </c>
       <c r="M75" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8315,9 +8419,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P75" s="1" t="str">
+      <c r="P75" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H75,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H75,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="22"/>
@@ -8337,7 +8441,7 @@
       </c>
       <c r="U75" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM</v>
       </c>
       <c r="V75" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8345,8 +8449,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="127"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8357,20 +8461,24 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89" t="str">
+      <c r="G76" s="121"/>
+      <c r="H76" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="I76" s="89">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J76" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="J76" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="K76" s="33" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L76" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PE6</v>
+        <v/>
       </c>
       <c r="M76" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8380,9 +8488,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P76" s="1" t="str">
+      <c r="P76" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H76,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H76,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="22"/>
@@ -8402,7 +8510,7 @@
       </c>
       <c r="U76" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM</v>
       </c>
       <c r="V76" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8410,7 +8518,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="127"/>
+      <c r="A77" s="128"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8475,7 +8583,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="127"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8538,8 +8646,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="127"/>
-      <c r="B79" s="116">
+      <c r="A79" s="128"/>
+      <c r="B79" s="136">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8602,8 +8710,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="127"/>
-      <c r="B80" s="117"/>
+      <c r="A80" s="128"/>
+      <c r="B80" s="137"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8621,7 +8729,7 @@
       <c r="J80" s="82"/>
       <c r="K80" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PB15</v>
+        <v/>
       </c>
       <c r="L80" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8665,7 +8773,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="127"/>
+      <c r="A81" s="128"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8728,7 +8836,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="127"/>
+      <c r="A82" s="128"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8792,10 +8900,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="121">
+      <c r="B83" s="123">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8859,8 +8967,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="119"/>
-      <c r="B84" s="122"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="110"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8919,8 +9027,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="119"/>
-      <c r="B85" s="122"/>
+      <c r="A85" s="107"/>
+      <c r="B85" s="110"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -8979,8 +9087,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="119"/>
-      <c r="B86" s="122"/>
+      <c r="A86" s="107"/>
+      <c r="B86" s="110"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9039,8 +9147,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="119"/>
-      <c r="B87" s="122"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="110"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9099,8 +9207,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="119"/>
-      <c r="B88" s="122"/>
+      <c r="A88" s="107"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9159,8 +9267,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="119"/>
-      <c r="B89" s="122"/>
+      <c r="A89" s="107"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9219,8 +9327,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="119"/>
-      <c r="B90" s="122"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9279,8 +9387,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="119"/>
-      <c r="B91" s="122"/>
+      <c r="A91" s="107"/>
+      <c r="B91" s="110"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9339,8 +9447,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="119"/>
-      <c r="B92" s="122"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="110"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9399,15 +9507,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="119"/>
-      <c r="B93" s="122"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="110"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="107" t="s">
+      <c r="G93" s="125" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9464,15 +9572,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="119"/>
-      <c r="B94" s="122"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="110"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="107"/>
+      <c r="G94" s="125"/>
       <c r="H94" s="86" t="s">
         <v>237</v>
       </c>
@@ -9527,15 +9635,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="119"/>
-      <c r="B95" s="122"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="107"/>
+      <c r="G95" s="125"/>
       <c r="H95" s="86" t="s">
         <v>238</v>
       </c>
@@ -9590,8 +9698,8 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="119"/>
-      <c r="B96" s="122"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="110"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
@@ -9650,8 +9758,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="119"/>
-      <c r="B97" s="122"/>
+      <c r="A97" s="107"/>
+      <c r="B97" s="110"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9710,8 +9818,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="119"/>
-      <c r="B98" s="123"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="112"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9771,8 +9879,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="119"/>
-      <c r="B99" s="122">
+      <c r="A99" s="107"/>
+      <c r="B99" s="110">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9835,8 +9943,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="119"/>
-      <c r="B100" s="122"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="110"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9895,8 +10003,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="119"/>
-      <c r="B101" s="122"/>
+      <c r="A101" s="107"/>
+      <c r="B101" s="110"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9955,8 +10063,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="119"/>
-      <c r="B102" s="122"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="110"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10015,8 +10123,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="119"/>
-      <c r="B103" s="122"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="110"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10075,8 +10183,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="119"/>
-      <c r="B104" s="122"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="110"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10135,8 +10243,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="119"/>
-      <c r="B105" s="122"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="110"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10195,8 +10303,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="119"/>
-      <c r="B106" s="122"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="110"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10255,8 +10363,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="119"/>
-      <c r="B107" s="122"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="110"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10315,8 +10423,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="119"/>
-      <c r="B108" s="122"/>
+      <c r="A108" s="107"/>
+      <c r="B108" s="110"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10375,8 +10483,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="119"/>
-      <c r="B109" s="122"/>
+      <c r="A109" s="107"/>
+      <c r="B109" s="110"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10435,8 +10543,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="119"/>
-      <c r="B110" s="122"/>
+      <c r="A110" s="107"/>
+      <c r="B110" s="110"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10495,8 +10603,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="119"/>
-      <c r="B111" s="122"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="110"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10555,8 +10663,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="119"/>
-      <c r="B112" s="122"/>
+      <c r="A112" s="107"/>
+      <c r="B112" s="110"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10615,8 +10723,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="119"/>
-      <c r="B113" s="122"/>
+      <c r="A113" s="107"/>
+      <c r="B113" s="110"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10675,8 +10783,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="119"/>
-      <c r="B114" s="122"/>
+      <c r="A114" s="107"/>
+      <c r="B114" s="110"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10738,8 +10846,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="119"/>
-      <c r="B115" s="125">
+      <c r="A115" s="107"/>
+      <c r="B115" s="109">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10800,8 +10908,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="119"/>
-      <c r="B116" s="122"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="110"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10860,8 +10968,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="119"/>
-      <c r="B117" s="122"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="110"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10920,8 +11028,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="119"/>
-      <c r="B118" s="122"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="110"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -10980,8 +11088,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="119"/>
-      <c r="B119" s="122"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="110"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11037,8 +11145,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="119"/>
-      <c r="B120" s="122"/>
+      <c r="A120" s="107"/>
+      <c r="B120" s="110"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11094,8 +11202,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="119"/>
-      <c r="B121" s="122"/>
+      <c r="A121" s="107"/>
+      <c r="B121" s="110"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11151,8 +11259,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="119"/>
-      <c r="B122" s="122"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="110"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11208,8 +11316,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="119"/>
-      <c r="B123" s="122"/>
+      <c r="A123" s="107"/>
+      <c r="B123" s="110"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11265,8 +11373,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="119"/>
-      <c r="B124" s="122"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="110"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11322,8 +11430,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="119"/>
-      <c r="B125" s="122"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="110"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11382,8 +11490,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="119"/>
-      <c r="B126" s="122"/>
+      <c r="A126" s="107"/>
+      <c r="B126" s="110"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11442,8 +11550,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="119"/>
-      <c r="B127" s="122"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="110"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11502,8 +11610,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="119"/>
-      <c r="B128" s="122"/>
+      <c r="A128" s="107"/>
+      <c r="B128" s="110"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11562,8 +11670,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="119"/>
-      <c r="B129" s="122"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="110"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11619,8 +11727,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="120"/>
-      <c r="B130" s="123"/>
+      <c r="A130" s="119"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11676,10 +11784,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="118" t="s">
+      <c r="A131" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="121">
+      <c r="B131" s="123">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11690,7 +11798,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="108" t="s">
+      <c r="G131" s="120" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11745,15 +11853,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="119"/>
-      <c r="B132" s="122"/>
+      <c r="A132" s="107"/>
+      <c r="B132" s="110"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="107"/>
+      <c r="G132" s="125"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11761,7 +11869,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="33" t="str">
         <f t="shared" ref="K132:K153" si="29">IF(D132="","",IF(COUNTIF($H:$H,D132)=0,D132,""))</f>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L132" s="24" t="str">
         <f t="shared" ref="L132:L153" si="30">IF(E132="","",IF(COUNTIF($H:$H,E132)=0,E132,""))</f>
@@ -11805,15 +11913,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="119"/>
-      <c r="B133" s="122"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="110"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="107"/>
+      <c r="G133" s="125"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11865,15 +11973,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="119"/>
-      <c r="B134" s="122"/>
+      <c r="A134" s="107"/>
+      <c r="B134" s="110"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="107"/>
+      <c r="G134" s="125"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11925,15 +12033,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="119"/>
-      <c r="B135" s="122"/>
+      <c r="A135" s="107"/>
+      <c r="B135" s="110"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="107"/>
+      <c r="G135" s="125"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11985,15 +12093,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="119"/>
-      <c r="B136" s="122"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="110"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="107"/>
+      <c r="G136" s="125"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12045,15 +12153,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="119"/>
-      <c r="B137" s="122"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="110"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="107"/>
+      <c r="G137" s="125"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12061,7 +12169,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L137" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12105,15 +12213,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="119"/>
-      <c r="B138" s="122"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="110"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="107"/>
+      <c r="G138" s="125"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12121,7 +12229,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L138" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12165,15 +12273,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="119"/>
-      <c r="B139" s="122"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="110"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="107"/>
+      <c r="G139" s="125"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12225,15 +12333,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="120"/>
-      <c r="B140" s="123"/>
+      <c r="A140" s="119"/>
+      <c r="B140" s="112"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="124"/>
+      <c r="G140" s="126"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12285,10 +12393,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="118" t="s">
+      <c r="A141" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="121" t="s">
+      <c r="B141" s="123" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12299,7 +12407,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="108" t="s">
+      <c r="G141" s="120" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12354,15 +12462,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="119"/>
-      <c r="B142" s="122"/>
+      <c r="A142" s="107"/>
+      <c r="B142" s="110"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="107"/>
+      <c r="G142" s="125"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12414,8 +12522,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="119"/>
-      <c r="B143" s="122"/>
+      <c r="A143" s="107"/>
+      <c r="B143" s="110"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12423,7 +12531,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="107"/>
+      <c r="G143" s="125"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12475,8 +12583,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="119"/>
-      <c r="B144" s="122"/>
+      <c r="A144" s="107"/>
+      <c r="B144" s="110"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12485,7 +12593,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="106"/>
+      <c r="G144" s="121"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12538,8 +12646,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="119"/>
-      <c r="B145" s="125" t="s">
+      <c r="A145" s="107"/>
+      <c r="B145" s="109" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12548,7 +12656,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="105" t="s">
+      <c r="G145" s="124" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12558,7 +12666,7 @@
       <c r="J145" s="3"/>
       <c r="K145" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PB15</v>
+        <v/>
       </c>
       <c r="L145" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12602,15 +12710,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="119"/>
-      <c r="B146" s="122"/>
+      <c r="A146" s="107"/>
+      <c r="B146" s="110"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="107"/>
+      <c r="G146" s="125"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12662,8 +12770,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="120"/>
-      <c r="B147" s="123"/>
+      <c r="A147" s="119"/>
+      <c r="B147" s="112"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12671,7 +12779,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="107"/>
+      <c r="G147" s="125"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12723,15 +12831,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="120"/>
-      <c r="B148" s="123"/>
+      <c r="A148" s="119"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="124"/>
+      <c r="G148" s="126"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12739,7 +12847,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PB15</v>
+        <v/>
       </c>
       <c r="L148" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12783,10 +12891,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="109" t="s">
+      <c r="A149" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="112" t="s">
+      <c r="B149" s="132" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12797,7 +12905,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="108" t="s">
+      <c r="G149" s="120" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12852,15 +12960,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="110"/>
-      <c r="B150" s="113"/>
+      <c r="A150" s="130"/>
+      <c r="B150" s="133"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="107"/>
+      <c r="G150" s="125"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12912,15 +13020,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="110"/>
-      <c r="B151" s="113"/>
+      <c r="A151" s="130"/>
+      <c r="B151" s="133"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="107"/>
+      <c r="G151" s="125"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12972,15 +13080,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="110"/>
-      <c r="B152" s="113"/>
+      <c r="A152" s="130"/>
+      <c r="B152" s="133"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="107"/>
+      <c r="G152" s="125"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13032,8 +13140,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="111"/>
-      <c r="B153" s="114"/>
+      <c r="A153" s="131"/>
+      <c r="B153" s="134"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13042,7 +13150,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="115"/>
+      <c r="G153" s="135"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13097,6 +13205,61 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13113,61 +13276,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13370,7 +13478,7 @@
       </c>
       <c r="G8" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B8,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM9_CN1</v>
       </c>
       <c r="H8" s="101"/>
       <c r="I8" s="140"/>
@@ -13389,7 +13497,7 @@
       </c>
       <c r="E9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN1</v>
       </c>
       <c r="F9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
@@ -13397,7 +13505,7 @@
       </c>
       <c r="G9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM9_CN2</v>
       </c>
       <c r="H9" s="101"/>
       <c r="I9" s="140"/>
@@ -13416,7 +13524,7 @@
       </c>
       <c r="E10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN2</v>
       </c>
       <c r="F10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
@@ -13443,7 +13551,7 @@
       </c>
       <c r="E11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN3</v>
       </c>
       <c r="F11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
@@ -13470,7 +13578,7 @@
       </c>
       <c r="E12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN4</v>
       </c>
       <c r="F12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
@@ -13555,7 +13663,7 @@
       </c>
       <c r="F15" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B15,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM4_CN1</v>
       </c>
       <c r="G15" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B15,使用ポート!$H:$H,0)),"")</f>
@@ -13609,7 +13717,7 @@
       </c>
       <c r="F17" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B17,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM4_CN3</v>
       </c>
       <c r="G17" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B17,使用ポート!$H:$H,0)),"")</f>
@@ -13628,7 +13736,7 @@
       </c>
       <c r="D18" s="77" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN3N</v>
       </c>
       <c r="E18" s="77" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>

--- a/Parent_Turtle_ver.servo_main_ver.2/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.2/Parent_Turtle_no1_video.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="5790" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16665" windowHeight="5790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -2665,30 +2665,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2699,69 +2762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3593,10 +3593,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3621,18 +3621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3645,11 +3645,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="116"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="137"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3663,10 +3663,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="105"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3675,10 +3675,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="125">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3690,7 +3690,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="132" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3747,8 +3747,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="111"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3814,8 +3814,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109">
+      <c r="A4" s="119"/>
+      <c r="B4" s="125">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3827,7 +3827,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="123" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3884,8 +3884,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="109"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3950,8 +3950,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="110">
+      <c r="A6" s="119"/>
+      <c r="B6" s="122">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3966,7 +3966,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="111"/>
+      <c r="G6" s="132"/>
       <c r="I6" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="132"/>
       <c r="I7" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4084,8 +4084,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109">
+      <c r="A8" s="119"/>
+      <c r="B8" s="125">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4097,7 +4097,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4150,8 +4150,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4214,8 +4214,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110">
+      <c r="A10" s="119"/>
+      <c r="B10" s="122">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="132"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4278,8 +4278,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="132"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4340,8 +4340,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109">
+      <c r="A12" s="119"/>
+      <c r="B12" s="125">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4350,7 +4350,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4403,15 +4403,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4464,8 +4464,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="110">
+      <c r="A14" s="119"/>
+      <c r="B14" s="122">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4474,7 +4474,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="132"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4526,15 +4526,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="107"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="132"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4586,14 +4586,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109">
+      <c r="A16" s="119"/>
+      <c r="B16" s="125">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4646,15 +4646,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="118"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4707,10 +4707,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="109">
+      <c r="B18" s="125">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4722,7 +4722,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="120"/>
+      <c r="G18" s="107"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4774,8 +4774,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="106"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4837,8 +4837,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110">
+      <c r="A20" s="119"/>
+      <c r="B20" s="122">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4851,7 +4851,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="123" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4908,8 +4908,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4975,10 +4975,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="121">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4991,7 +4991,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="86" t="s">
         <v>233</v>
       </c>
@@ -5046,8 +5046,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="86" t="s">
         <v>234</v>
       </c>
@@ -5112,8 +5112,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110">
+      <c r="A24" s="119"/>
+      <c r="B24" s="122">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="112"/>
+      <c r="G24" s="123"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5177,8 +5177,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5240,8 +5240,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="109">
+      <c r="A26" s="119"/>
+      <c r="B26" s="125">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="124"/>
+      <c r="G26" s="105"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5304,8 +5304,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="106"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5368,14 +5368,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="110">
+      <c r="A28" s="119"/>
+      <c r="B28" s="122">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5428,15 +5428,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="118"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5489,7 +5489,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="128" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5551,8 +5551,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="110" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="122" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5561,7 +5561,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="124"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5614,14 +5614,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="125"/>
+      <c r="G32" s="108"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5673,14 +5673,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="125"/>
+      <c r="G33" s="108"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5732,14 +5732,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="125"/>
+      <c r="G34" s="108"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5791,15 +5791,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="121"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5852,15 +5852,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="109" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="125" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="124"/>
+      <c r="G36" s="105"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5912,14 +5912,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="125"/>
+      <c r="G37" s="108"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5971,14 +5971,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="125"/>
+      <c r="G38" s="108"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6030,14 +6030,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="125"/>
+      <c r="G39" s="108"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6089,12 +6089,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="119"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="126"/>
+      <c r="G40" s="124"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6146,10 +6146,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="123">
+      <c r="B41" s="121">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6162,7 +6162,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="107" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6219,8 +6219,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="128"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6233,7 +6233,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="125"/>
+      <c r="G42" s="108"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6285,8 +6285,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="128"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="125"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="86" t="s">
         <v>219</v>
       </c>
@@ -6352,8 +6352,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="128"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="125"/>
+      <c r="G44" s="108"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6418,8 +6418,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="128"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="125"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="86" t="s">
         <v>220</v>
       </c>
@@ -6485,8 +6485,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="128"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="125"/>
+      <c r="G46" s="108"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6551,8 +6551,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="128"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="121"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="89" t="s">
         <v>221</v>
       </c>
@@ -6618,8 +6618,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="128"/>
-      <c r="B48" s="109">
+      <c r="A48" s="127"/>
+      <c r="B48" s="125">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6634,7 +6634,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="124" t="s">
+      <c r="G48" s="105" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6691,8 +6691,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="128"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="125"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="86" t="s">
         <v>223</v>
       </c>
@@ -6757,8 +6757,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="128"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="125"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="86" t="s">
         <v>224</v>
       </c>
@@ -6823,8 +6823,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="128"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="121"/>
+      <c r="G51" s="106"/>
       <c r="H51" s="89" t="s">
         <v>225</v>
       </c>
@@ -6889,8 +6889,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="128"/>
-      <c r="B52" s="110">
+      <c r="A52" s="127"/>
+      <c r="B52" s="122">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6905,7 +6905,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="124" t="s">
+      <c r="G52" s="105" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6962,8 +6962,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="128"/>
-      <c r="B53" s="110"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="108"/>
       <c r="H53" s="86" t="s">
         <v>227</v>
       </c>
@@ -7031,8 +7031,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="128"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="125"/>
+      <c r="G54" s="108"/>
       <c r="H54" s="86" t="s">
         <v>228</v>
       </c>
@@ -7098,8 +7098,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="128"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="121"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="89" t="s">
         <v>229</v>
       </c>
@@ -7165,8 +7165,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="128"/>
-      <c r="B56" s="109">
+      <c r="A56" s="127"/>
+      <c r="B56" s="125">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7235,8 +7235,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="128"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7298,8 +7298,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="128"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7366,8 +7366,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="128"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7434,8 +7434,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="128"/>
-      <c r="B60" s="110">
+      <c r="A60" s="127"/>
+      <c r="B60" s="122">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="124"/>
+      <c r="G60" s="105"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7498,15 +7498,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="128"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="125"/>
+      <c r="G61" s="108"/>
       <c r="I61" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7558,15 +7558,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="128"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="125"/>
+      <c r="G62" s="108"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7618,8 +7618,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="128"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="121"/>
+      <c r="G63" s="106"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7681,8 +7681,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="128"/>
-      <c r="B64" s="109">
+      <c r="A64" s="127"/>
+      <c r="B64" s="125">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7740,8 +7740,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="128"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7797,8 +7797,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="128"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="122"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7854,8 +7854,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="128"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7912,8 +7912,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="128"/>
-      <c r="B68" s="110">
+      <c r="A68" s="127"/>
+      <c r="B68" s="122">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7981,8 +7981,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="128"/>
-      <c r="B69" s="109"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -8044,8 +8044,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="128"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="127"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
@@ -8111,8 +8111,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="128"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="122"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8174,8 +8174,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="128"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
@@ -8239,8 +8239,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="128"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8307,8 +8307,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="128"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8376,8 +8376,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="128"/>
-      <c r="B75" s="112">
+      <c r="A75" s="127"/>
+      <c r="B75" s="123">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8390,7 +8390,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="124" t="s">
+      <c r="G75" s="105" t="s">
         <v>246</v>
       </c>
       <c r="H75" s="86" t="s">
@@ -8449,8 +8449,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="128"/>
-      <c r="B76" s="109"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="121"/>
+      <c r="G76" s="106"/>
       <c r="H76" s="89" t="s">
         <v>248</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="128"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="128"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8646,8 +8646,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="128"/>
-      <c r="B79" s="136">
+      <c r="A79" s="127"/>
+      <c r="B79" s="116">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8710,8 +8710,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="128"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="127"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="128"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8836,7 +8836,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8900,10 +8900,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="123">
+      <c r="B83" s="121">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8967,8 +8967,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="107"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="119"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -9027,8 +9027,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="107"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -9087,8 +9087,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="107"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="122"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9147,8 +9147,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="107"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="122"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9207,8 +9207,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="107"/>
-      <c r="B88" s="110"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="122"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9267,8 +9267,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="119"/>
+      <c r="B89" s="122"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9327,8 +9327,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="119"/>
+      <c r="B90" s="122"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9387,8 +9387,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="119"/>
+      <c r="B91" s="122"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9447,8 +9447,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="119"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9507,15 +9507,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="107"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="125" t="s">
+      <c r="G93" s="108" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9572,15 +9572,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="107"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="125"/>
+      <c r="G94" s="108"/>
       <c r="H94" s="86" t="s">
         <v>237</v>
       </c>
@@ -9635,15 +9635,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="107"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="122"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="125"/>
+      <c r="G95" s="108"/>
       <c r="H95" s="86" t="s">
         <v>238</v>
       </c>
@@ -9698,8 +9698,8 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="107"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
@@ -9758,8 +9758,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="107"/>
-      <c r="B97" s="110"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9818,8 +9818,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="107"/>
-      <c r="B98" s="112"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9879,8 +9879,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="107"/>
-      <c r="B99" s="110">
+      <c r="A99" s="119"/>
+      <c r="B99" s="122">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9943,8 +9943,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="107"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="122"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -10003,8 +10003,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="107"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="119"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -10063,8 +10063,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="107"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="119"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10123,8 +10123,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="107"/>
-      <c r="B103" s="110"/>
+      <c r="A103" s="119"/>
+      <c r="B103" s="122"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10183,8 +10183,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="107"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="119"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10243,8 +10243,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="107"/>
-      <c r="B105" s="110"/>
+      <c r="A105" s="119"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10303,8 +10303,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="107"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="119"/>
+      <c r="B106" s="122"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10363,8 +10363,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="107"/>
-      <c r="B107" s="110"/>
+      <c r="A107" s="119"/>
+      <c r="B107" s="122"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10423,8 +10423,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="107"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="119"/>
+      <c r="B108" s="122"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10483,8 +10483,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="107"/>
-      <c r="B109" s="110"/>
+      <c r="A109" s="119"/>
+      <c r="B109" s="122"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10543,8 +10543,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="107"/>
-      <c r="B110" s="110"/>
+      <c r="A110" s="119"/>
+      <c r="B110" s="122"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10603,8 +10603,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="107"/>
-      <c r="B111" s="110"/>
+      <c r="A111" s="119"/>
+      <c r="B111" s="122"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10663,8 +10663,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="107"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="119"/>
+      <c r="B112" s="122"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10723,8 +10723,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="107"/>
-      <c r="B113" s="110"/>
+      <c r="A113" s="119"/>
+      <c r="B113" s="122"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10783,8 +10783,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="107"/>
-      <c r="B114" s="110"/>
+      <c r="A114" s="119"/>
+      <c r="B114" s="122"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10846,8 +10846,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="107"/>
-      <c r="B115" s="109">
+      <c r="A115" s="119"/>
+      <c r="B115" s="125">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10908,8 +10908,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="107"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="119"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10968,8 +10968,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="107"/>
-      <c r="B117" s="110"/>
+      <c r="A117" s="119"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -11028,8 +11028,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="107"/>
-      <c r="B118" s="110"/>
+      <c r="A118" s="119"/>
+      <c r="B118" s="122"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -11088,8 +11088,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="107"/>
-      <c r="B119" s="110"/>
+      <c r="A119" s="119"/>
+      <c r="B119" s="122"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11145,8 +11145,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="107"/>
-      <c r="B120" s="110"/>
+      <c r="A120" s="119"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11202,8 +11202,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="107"/>
-      <c r="B121" s="110"/>
+      <c r="A121" s="119"/>
+      <c r="B121" s="122"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11259,8 +11259,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="107"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="119"/>
+      <c r="B122" s="122"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11316,8 +11316,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="107"/>
-      <c r="B123" s="110"/>
+      <c r="A123" s="119"/>
+      <c r="B123" s="122"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11373,8 +11373,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="107"/>
-      <c r="B124" s="110"/>
+      <c r="A124" s="119"/>
+      <c r="B124" s="122"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11430,8 +11430,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="107"/>
-      <c r="B125" s="110"/>
+      <c r="A125" s="119"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11490,8 +11490,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="107"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="119"/>
+      <c r="B126" s="122"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11550,8 +11550,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="107"/>
-      <c r="B127" s="110"/>
+      <c r="A127" s="119"/>
+      <c r="B127" s="122"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11610,8 +11610,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="107"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="119"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11670,8 +11670,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="107"/>
-      <c r="B129" s="110"/>
+      <c r="A129" s="119"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11727,8 +11727,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="119"/>
-      <c r="B130" s="112"/>
+      <c r="A130" s="120"/>
+      <c r="B130" s="123"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11784,10 +11784,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="123">
+      <c r="B131" s="121">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="120" t="s">
+      <c r="G131" s="107" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11853,15 +11853,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="107"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="119"/>
+      <c r="B132" s="122"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="125"/>
+      <c r="G132" s="108"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11913,15 +11913,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="107"/>
-      <c r="B133" s="110"/>
+      <c r="A133" s="119"/>
+      <c r="B133" s="122"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="125"/>
+      <c r="G133" s="108"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11973,15 +11973,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="107"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="119"/>
+      <c r="B134" s="122"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="125"/>
+      <c r="G134" s="108"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12033,15 +12033,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="107"/>
-      <c r="B135" s="110"/>
+      <c r="A135" s="119"/>
+      <c r="B135" s="122"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="125"/>
+      <c r="G135" s="108"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12093,15 +12093,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="107"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="119"/>
+      <c r="B136" s="122"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="125"/>
+      <c r="G136" s="108"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12153,15 +12153,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="107"/>
-      <c r="B137" s="110"/>
+      <c r="A137" s="119"/>
+      <c r="B137" s="122"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="125"/>
+      <c r="G137" s="108"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12213,15 +12213,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="107"/>
-      <c r="B138" s="110"/>
+      <c r="A138" s="119"/>
+      <c r="B138" s="122"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="125"/>
+      <c r="G138" s="108"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12273,15 +12273,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="107"/>
-      <c r="B139" s="110"/>
+      <c r="A139" s="119"/>
+      <c r="B139" s="122"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="125"/>
+      <c r="G139" s="108"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12333,15 +12333,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="119"/>
-      <c r="B140" s="112"/>
+      <c r="A140" s="120"/>
+      <c r="B140" s="123"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="126"/>
+      <c r="G140" s="124"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12393,10 +12393,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="122" t="s">
+      <c r="A141" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="123" t="s">
+      <c r="B141" s="121" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="120" t="s">
+      <c r="G141" s="107" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12462,15 +12462,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="107"/>
-      <c r="B142" s="110"/>
+      <c r="A142" s="119"/>
+      <c r="B142" s="122"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="125"/>
+      <c r="G142" s="108"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12522,8 +12522,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="107"/>
-      <c r="B143" s="110"/>
+      <c r="A143" s="119"/>
+      <c r="B143" s="122"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="125"/>
+      <c r="G143" s="108"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12583,8 +12583,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="107"/>
-      <c r="B144" s="110"/>
+      <c r="A144" s="119"/>
+      <c r="B144" s="122"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="121"/>
+      <c r="G144" s="106"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12646,8 +12646,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="107"/>
-      <c r="B145" s="109" t="s">
+      <c r="A145" s="119"/>
+      <c r="B145" s="125" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12656,7 +12656,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="124" t="s">
+      <c r="G145" s="105" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12710,15 +12710,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="107"/>
-      <c r="B146" s="110"/>
+      <c r="A146" s="119"/>
+      <c r="B146" s="122"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="125"/>
+      <c r="G146" s="108"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12770,8 +12770,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="119"/>
-      <c r="B147" s="112"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="123"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="125"/>
+      <c r="G147" s="108"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12831,15 +12831,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="119"/>
-      <c r="B148" s="112"/>
+      <c r="A148" s="120"/>
+      <c r="B148" s="123"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="126"/>
+      <c r="G148" s="124"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12891,10 +12891,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="129" t="s">
+      <c r="A149" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="132" t="s">
+      <c r="B149" s="112" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="120" t="s">
+      <c r="G149" s="107" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12960,15 +12960,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="130"/>
-      <c r="B150" s="133"/>
+      <c r="A150" s="110"/>
+      <c r="B150" s="113"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="125"/>
+      <c r="G150" s="108"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13020,15 +13020,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="130"/>
-      <c r="B151" s="133"/>
+      <c r="A151" s="110"/>
+      <c r="B151" s="113"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="125"/>
+      <c r="G151" s="108"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13080,15 +13080,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="130"/>
-      <c r="B152" s="133"/>
+      <c r="A152" s="110"/>
+      <c r="B152" s="113"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="125"/>
+      <c r="G152" s="108"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13140,8 +13140,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="131"/>
-      <c r="B153" s="134"/>
+      <c r="A153" s="111"/>
+      <c r="B153" s="114"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="135"/>
+      <c r="G153" s="115"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13205,61 +13205,6 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13276,6 +13221,61 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
